--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_05/cosinor_2_sawtooth_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_05/cosinor_2_sawtooth_05_.xlsx
@@ -571,53 +571,55 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>22.43000000000007</v>
+        <v>22.70000000000011</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>4.981283290406147e-06</v>
+        <v>3.648916705456529e-06</v>
       </c>
       <c r="H2" t="n">
-        <v>2.185222837461436e-05</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
+        <v>2.101619151221488e-05</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.1397219266286147</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>4.796228731615958</v>
+        <v>4.846680087310672</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[2.5939371958610744, 6.998520267370842]</t>
+          <t>[2.3087930397586565, 7.384567134862687]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>2.301667510051786e-05</v>
+        <v>0.0001983204816922157</v>
       </c>
       <c r="N2" t="n">
-        <v>2.301667510051786e-05</v>
+        <v>0.0001983204816922157</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.42142130072331</v>
+        <v>-0.9811580659860013</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.9748950815359256, -0.8679475199106941]</t>
+          <t>[-1.509473947670771, -0.4528421843012316]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>6.617447538825871e-07</v>
+        <v>0.0002943179237711036</v>
       </c>
       <c r="R2" t="n">
-        <v>6.617447538825871e-07</v>
+        <v>0.0003049156030161537</v>
       </c>
       <c r="S2" t="n">
-        <v>11.50309841301451</v>
+        <v>11.54651635097832</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[10.17906599574739, 12.827130830281636]</t>
+          <t>[10.220423141405096, 12.872609560551542]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +629,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>5.074254254254271</v>
+        <v>3.544744744744762</v>
       </c>
       <c r="X2" t="n">
-        <v>3.098438438438451</v>
+        <v>1.636036036036045</v>
       </c>
       <c r="Y2" t="n">
-        <v>7.050070070070091</v>
+        <v>5.453453453453479</v>
       </c>
     </row>
     <row r="3">
@@ -652,53 +654,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.35000000000021</v>
+        <v>23.23000000000019</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1.578011374903099e-07</v>
+        <v>7.513966182592924e-07</v>
       </c>
       <c r="H3" t="n">
-        <v>3.234258985629346e-06</v>
+        <v>1.409519809018415e-05</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>6.298034750544803</v>
+        <v>5.836211037737688</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[3.532302474345098, 9.063767026744507]</t>
+          <t>[2.898289876973704, 8.774132198501672]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>1.029952874476159e-05</v>
+        <v>0.000112885007220509</v>
       </c>
       <c r="N3" t="n">
-        <v>2.059905748952318e-05</v>
+        <v>0.0001983204816922157</v>
       </c>
       <c r="O3" t="n">
-        <v>1.314500229429963</v>
+        <v>0.8868159442565782</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[0.8490790955648091, 1.7799213632951165]</t>
+          <t>[0.40881586082750143, 1.364816027685655]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>5.665110758279468e-08</v>
+        <v>0.0003049156030161537</v>
       </c>
       <c r="R3" t="n">
-        <v>1.133022151655894e-07</v>
+        <v>0.0003049156030161537</v>
       </c>
       <c r="S3" t="n">
-        <v>11.26336982897973</v>
+        <v>11.62868285882105</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[9.72381288582352, 12.802926772135947]</t>
+          <t>[10.120680820031009, 13.136684897611087]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>18.46496496496513</v>
+        <v>19.95129129129146</v>
       </c>
       <c r="X3" t="n">
-        <v>16.73533533533549</v>
+        <v>18.1840440440442</v>
       </c>
       <c r="Y3" t="n">
-        <v>20.19459459459478</v>
+        <v>21.71853853853872</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_05/cosinor_2_sawtooth_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_05/cosinor_2_sawtooth_05_.xlsx
@@ -571,55 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>22.70000000000011</v>
+        <v>22.36000000000006</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>3.648916705456529e-06</v>
+        <v>9.03743975211313e-08</v>
       </c>
       <c r="H2" t="n">
-        <v>2.101619151221488e-05</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.1397219266286147</v>
-      </c>
+        <v>2.698274712755542e-06</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>4.846680087310672</v>
+        <v>5.745030691112211</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[2.3087930397586565, 7.384567134862687]</t>
+          <t>[3.4809121005702135, 8.009149281654208]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.0001983204816922157</v>
+        <v>8.906644004547104e-07</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0001983204816922157</v>
+        <v>1.781328800909421e-06</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.9811580659860013</v>
+        <v>-1.698158191129618</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.509473947670771, -0.4528421843012316]</t>
+          <t>[-2.151000375430849, -1.2453160068283875]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.0002943179237711036</v>
+        <v>8.808509477375992e-13</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0003049156030161537</v>
+        <v>1.761701895475198e-12</v>
       </c>
       <c r="S2" t="n">
-        <v>11.54651635097832</v>
+        <v>11.25171838002731</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[10.220423141405096, 12.872609560551542]</t>
+          <t>[9.884142934180995, 12.619293825873635]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -629,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>3.544744744744762</v>
+        <v>6.043243243243261</v>
       </c>
       <c r="X2" t="n">
-        <v>1.636036036036045</v>
+        <v>4.431711711711728</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.453453453453479</v>
+        <v>7.654774774774793</v>
       </c>
     </row>
     <row r="3">
@@ -660,47 +658,47 @@
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>7.513966182592924e-07</v>
+        <v>5.100604474339576e-06</v>
       </c>
       <c r="H3" t="n">
-        <v>1.409519809018415e-05</v>
+        <v>3.247355648656918e-05</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>5.836211037737688</v>
+        <v>5.751825387087798</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[2.898289876973704, 8.774132198501672]</t>
+          <t>[2.5736079585654608, 8.930042815610136]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0.000112885007220509</v>
+        <v>0.0004247924848974627</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0001983204816922157</v>
+        <v>0.0004247924848974627</v>
       </c>
       <c r="O3" t="n">
-        <v>0.8868159442565782</v>
+        <v>0.6855527512338089</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[0.40881586082750143, 1.364816027685655]</t>
+          <t>[0.16981581911296129, 1.2012896833546565]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.0003049156030161537</v>
+        <v>0.009333314321966046</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0003049156030161537</v>
+        <v>0.009333314321966046</v>
       </c>
       <c r="S3" t="n">
-        <v>11.62868285882105</v>
+        <v>12.0818823104568</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[10.120680820031009, 13.136684897611087]</t>
+          <t>[10.473942385025342, 13.689822235888261]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -710,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>19.95129129129146</v>
+        <v>20.69539539539556</v>
       </c>
       <c r="X3" t="n">
-        <v>18.1840440440442</v>
+        <v>18.78862862862878</v>
       </c>
       <c r="Y3" t="n">
-        <v>21.71853853853872</v>
+        <v>22.60216216216235</v>
       </c>
     </row>
   </sheetData>
